--- a/documents/designs/database.xlsx
+++ b/documents/designs/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A30070 - Tú Điền\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET\NetCore\Project\CurriculumManager\CurriculumManager\documents\designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E32BE57-30B7-4DA0-A5A8-1E3BA18D37F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC20A2-97A2-417F-9C7C-4111467365C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{BC8631EA-D656-42A1-8304-90F09B33E467}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC8631EA-D656-42A1-8304-90F09B33E467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -100,16 +99,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>220430</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>191855</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -124,8 +123,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733550" y="438150"/>
-          <a:ext cx="1628775" cy="942975"/>
+          <a:off x="12221930" y="2669722"/>
+          <a:ext cx="1685925" cy="854528"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -184,16 +183,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>234037</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>195937</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -208,8 +207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4343400" y="428625"/>
-          <a:ext cx="1628775" cy="942975"/>
+          <a:off x="12235537" y="4129768"/>
+          <a:ext cx="1676400" cy="904873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -417,7 +416,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>NumberCredit - Số</a:t>
+            <a:t>Unit - Số</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -507,16 +506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>69388</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>59863</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -531,8 +530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790700" y="1590676"/>
-          <a:ext cx="1895475" cy="857250"/>
+          <a:off x="6682459" y="2107746"/>
+          <a:ext cx="1949904" cy="1130753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -595,6 +594,26 @@
             </a:rPr>
             <a:t> nhóm kiến thức</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ParentId - Nhóm kiến thức cha</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>DisplayOrder - thử tự</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -613,14 +632,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6808</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>156488</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -637,8 +656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="381000"/>
-          <a:ext cx="2047875" cy="1171575"/>
+          <a:off x="3680737" y="381000"/>
+          <a:ext cx="2109108" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -749,16 +768,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>63959</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>213638</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -773,8 +792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9391650" y="2324100"/>
-          <a:ext cx="3000375" cy="1238250"/>
+          <a:off x="11330673" y="364672"/>
+          <a:ext cx="3088822" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -855,7 +874,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Status - Trạng thái ( NotExist: 0 - Exist: 1)</a:t>
+            <a:t>InLibrary - Trạng thái ( NotExist: 0 - Exist: 1)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -881,14 +900,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>131993</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>27219</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -905,8 +924,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9391650" y="495300"/>
-          <a:ext cx="2990850" cy="942975"/>
+          <a:off x="6989993" y="495300"/>
+          <a:ext cx="3079297" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1429,7 +1448,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Courses</a:t>
+            <a:t>SubjecId</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1466,70 +1485,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59614087-8EC7-4A62-A687-316CA8845E10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3362325" y="900113"/>
-          <a:ext cx="981075" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>156488</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>131993</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
@@ -1549,8 +1512,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8620125" y="966788"/>
-          <a:ext cx="771525" cy="0"/>
+          <a:off x="5789845" y="966788"/>
+          <a:ext cx="1200148" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1578,16 +1541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>27219</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>63959</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31297</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1599,14 +1562,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="0"/>
-          <a:endCxn id="8" idx="2"/>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="8" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10887075" y="1438275"/>
-          <a:ext cx="4763" cy="885825"/>
+          <a:off x="10069290" y="966788"/>
+          <a:ext cx="1261383" cy="17009"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1858,16 +1821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>159202</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>129270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1882,8 +1845,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6915150" y="3857625"/>
-          <a:ext cx="2047875" cy="1028700"/>
+          <a:off x="9221559" y="3939270"/>
+          <a:ext cx="2102303" cy="1285874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1936,6 +1899,27 @@
             </a:rPr>
             <a:t>ID</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Name - Tên</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> chương trình học</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1983,8 +1967,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81648</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
@@ -2004,12 +1988,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="1714500" y="381000"/>
-          <a:ext cx="5881688" cy="4205288"/>
+          <a:off x="1762125" y="381000"/>
+          <a:ext cx="2973166" cy="4205288"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -3887"/>
+            <a:gd name="adj1" fmla="val -7689"/>
             <a:gd name="adj2" fmla="val 105436"/>
           </a:avLst>
         </a:prstGeom>
@@ -2036,16 +2020,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>160562</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>137431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>65312</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2060,8 +2044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6896100" y="2314575"/>
-          <a:ext cx="2047875" cy="742949"/>
+          <a:off x="9222919" y="2423431"/>
+          <a:ext cx="2109107" cy="869497"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2163,23 +2147,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>44899</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>44899</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 47">
+        <xdr:cNvPr id="37" name="Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7095E40A-92EE-463A-89F1-01F2B76C7FCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35066E00-BF82-4416-98C1-C7F5DBCE0F57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,8 +2171,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4219575" y="1562100"/>
-          <a:ext cx="2047875" cy="923925"/>
+          <a:off x="6657970" y="4000499"/>
+          <a:ext cx="1959429" cy="1156607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2218,7 +2202,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CurriculumDetails - Chi tiết chương trình học</a:t>
+            <a:t>CurriculumDetails - Chi tiết chương trình học </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2242,6 +2226,16 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
+            <a:t>CurriculumId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>KnowledgeGroupId</a:t>
           </a:r>
         </a:p>
@@ -2252,8 +2246,19 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>CurriculumId</a:t>
-          </a:r>
+            <a:t>Note</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> - Chú thích</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -2268,35 +2273,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>61913</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>49661</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>64625</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8130917-2490-4F05-9320-BA5896B24451}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F84FB14-A4B3-4C79-B575-BC0C6DF3B07B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="2"/>
-          <a:endCxn id="38" idx="0"/>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7920038" y="3057524"/>
-          <a:ext cx="19050" cy="800101"/>
+        <a:xfrm flipH="1">
+          <a:off x="7642447" y="3238499"/>
+          <a:ext cx="14964" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2324,40 +2329,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>83679</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>92523</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129268</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626AD63F-E34D-4F14-ABC2-A8AC84A5AE5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEF5DDC-A5E8-48D8-8644-7EC392D8D338}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="38" idx="1"/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5972175" y="900113"/>
-          <a:ext cx="942975" cy="3471862"/>
+          <a:off x="13064893" y="3524250"/>
+          <a:ext cx="8844" cy="605518"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -2382,140 +2385,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>44899</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Rectangle 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D0AF89-BAB1-41DB-8763-50E72F5931EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1790700" y="2695575"/>
-          <a:ext cx="1895475" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> KnowledgeGroupDetails</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>KnowledgeGroupId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>SubjectId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>159202</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC9E4C8-C57C-4115-941B-3FDAD9AA092D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFF2C4A-D780-4A31-AD8F-58EA95C68FEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="48" idx="1"/>
+          <a:stCxn id="38" idx="1"/>
+          <a:endCxn id="37" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3686175" y="2019301"/>
-          <a:ext cx="533400" cy="4762"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8617399" y="4578803"/>
+          <a:ext cx="604160" cy="3404"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2543,40 +2441,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>57148</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>234037</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10207</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCCF82A-A549-498A-8B0B-78E651007599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B424B0-F450-4AD9-AD43-874578FD1F34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="2"/>
-          <a:endCxn id="48" idx="2"/>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="38" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="5391151" y="2338388"/>
-          <a:ext cx="2400300" cy="2695575"/>
+        <a:xfrm flipH="1">
+          <a:off x="11323862" y="4582205"/>
+          <a:ext cx="911675" cy="2"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -9524"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -2601,35 +2497,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>230640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>235402</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129270</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B56A6C0-AFCA-4D07-94EE-60AC7106F2CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54BC678-9A1D-4E75-8118-5A7A9B5CBE43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="57" idx="0"/>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2738438" y="2447926"/>
-          <a:ext cx="0" cy="247649"/>
+        <a:xfrm flipH="1">
+          <a:off x="10272711" y="3292928"/>
+          <a:ext cx="4762" cy="646342"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2657,35 +2553,192 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>153762</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182EBCA0-E54F-4EAD-B3DA-7902D05B37AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4327072" y="4014107"/>
+          <a:ext cx="1949904" cy="1130753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SubjectGroups</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CurriculumDetailId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SubjectId</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>153762</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>44899</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7484</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE37D371-72E1-4DAE-B4B4-B3F7EBF1DF0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD15C428-5292-44A5-A7E9-93E660FB639C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="57" idx="2"/>
+          <a:stCxn id="37" idx="1"/>
+          <a:endCxn id="30" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6276976" y="4578803"/>
+          <a:ext cx="380994" cy="681"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732E4A8B-8457-403B-ACA3-DA5EA63ED70E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2738438" y="3552825"/>
-          <a:ext cx="0" cy="342901"/>
+          <a:off x="3864429" y="4579484"/>
+          <a:ext cx="462643" cy="6804"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3013,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31042CD-5974-448B-A340-A57F76A7793D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/designs/database.xlsx
+++ b/documents/designs/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET\NetCore\Project\CurriculumManager\CurriculumManager\documents\designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDC20A2-97A2-417F-9C7C-4111467365C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05A582D-9F55-44EB-B29A-85AEC734F80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC8631EA-D656-42A1-8304-90F09B33E467}"/>
   </bookViews>
@@ -154,7 +154,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Facultys - Khoa</a:t>
+            <a:t>Faculties - Khoa</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -507,15 +507,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>69388</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12246</xdr:rowOff>
+      <xdr:colOff>42173</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>189139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>59863</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>32648</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -530,7 +530,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6682459" y="2107746"/>
+          <a:off x="6655244" y="2475139"/>
           <a:ext cx="1949904" cy="1130753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -632,16 +632,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>6808</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224897</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>156488</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>145521</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -656,8 +656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3680737" y="381000"/>
-          <a:ext cx="2109108" cy="1171575"/>
+          <a:off x="2844272" y="370417"/>
+          <a:ext cx="3730624" cy="1402291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -728,6 +728,16 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
+            <a:t>SchoolYearId - Mã năm học</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
             <a:t>Goal - Mục tiêu học phần</a:t>
           </a:r>
         </a:p>
@@ -749,6 +759,23 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Content - Nội dung chi tiết</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ApproveStatus - Trạng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> thái (Approved: 0 - Reject: 1)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -770,14 +797,14 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>63959</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>94795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>213638</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>78922</xdr:rowOff>
+      <xdr:rowOff>184754</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -792,8 +819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11330673" y="364672"/>
-          <a:ext cx="3088822" cy="1238250"/>
+          <a:off x="11017709" y="465212"/>
+          <a:ext cx="3007179" cy="1201209"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -900,16 +927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>131993</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12928</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>27219</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>146279</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -924,8 +951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6989993" y="495300"/>
-          <a:ext cx="3079297" cy="942975"/>
+          <a:off x="7156678" y="617007"/>
+          <a:ext cx="2990851" cy="916516"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1414,7 +1441,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>UserCourses </a:t>
+            <a:t>UserSubjects </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -1485,16 +1512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>156488</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>145521</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>145521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>131993</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12928</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>149223</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1512,8 +1539,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5789845" y="966788"/>
-          <a:ext cx="1200148" cy="0"/>
+          <a:off x="6574896" y="1071563"/>
+          <a:ext cx="581782" cy="3702"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1541,16 +1568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>27219</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>146279</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>139775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>63959</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>31297</xdr:rowOff>
+      <xdr:rowOff>149223</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1567,9 +1594,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10069290" y="966788"/>
-          <a:ext cx="1261383" cy="17009"/>
+        <a:xfrm flipH="1">
+          <a:off x="10147529" y="1065817"/>
+          <a:ext cx="870180" cy="9448"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1823,14 +1850,14 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>159202</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129270</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>57148</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1845,8 +1872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9221559" y="3939270"/>
-          <a:ext cx="2102303" cy="1285874"/>
+          <a:off x="8969827" y="3674688"/>
+          <a:ext cx="2041071" cy="1564063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1946,6 +1973,16 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>SchoolYearId - Mã năm học</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ApproveStatus - Trạng thái (Approved: 0 - Reject: 1)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1964,13 +2001,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>81648</xdr:colOff>
+      <xdr:colOff>185209</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>16935</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1988,13 +2025,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="1762125" y="381000"/>
-          <a:ext cx="2973166" cy="4205288"/>
+          <a:off x="1714500" y="370418"/>
+          <a:ext cx="2995084" cy="4091517"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -7689"/>
-            <a:gd name="adj2" fmla="val 105436"/>
+            <a:gd name="adj1" fmla="val -7633"/>
+            <a:gd name="adj2" fmla="val 105587"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2274,13 +2311,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>49661</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>37410</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>64625</xdr:colOff>
+      <xdr:colOff>44899</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
@@ -2299,9 +2336,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7642447" y="3238499"/>
-          <a:ext cx="14964" cy="762000"/>
+        <a:xfrm>
+          <a:off x="7630196" y="3605892"/>
+          <a:ext cx="7489" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2388,13 +2425,13 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>44899</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
+      <xdr:rowOff>9449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>159202</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>10207</xdr:rowOff>
+      <xdr:rowOff>11720</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2412,8 +2449,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8617399" y="4578803"/>
-          <a:ext cx="604160" cy="3404"/>
+          <a:off x="8379274" y="4454449"/>
+          <a:ext cx="590553" cy="2271"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2444,13 +2481,13 @@
       <xdr:col>46</xdr:col>
       <xdr:colOff>57148</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>10205</xdr:rowOff>
+      <xdr:rowOff>11720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>234037</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>10207</xdr:rowOff>
+      <xdr:rowOff>12851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2467,9 +2504,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11323862" y="4582205"/>
-          <a:ext cx="911675" cy="2"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11010898" y="4456720"/>
+          <a:ext cx="891264" cy="1131"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2498,15 +2535,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>230640</xdr:colOff>
+      <xdr:colOff>227238</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>235402</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129270</xdr:rowOff>
+      <xdr:colOff>232000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155730</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2524,8 +2561,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10272711" y="3292928"/>
-          <a:ext cx="4762" cy="646342"/>
+          <a:off x="9990363" y="3202970"/>
+          <a:ext cx="4762" cy="471718"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2742,6 +2779,287 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F895972-28C6-4F70-91B9-5354C3D81B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13566321" y="6068785"/>
+          <a:ext cx="2102304" cy="884464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Genres - Bộ môn </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Name</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> - Tên bộ môn</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>FacultyId - Mã ngành</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>191855</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEF6CA8-B8E6-4315-A6BF-EE8BACF408A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13907855" y="3096986"/>
+          <a:ext cx="709618" cy="2971799"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1361</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CADEC3-C874-4EB7-9EF4-EC535AC0B246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10177122" y="2655774"/>
+          <a:ext cx="142876" cy="8737826"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 688568"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>185210</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>232001</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BFF9C3-2EEA-4A99-A4A5-D27FA109C94F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7058744" y="-576451"/>
+          <a:ext cx="587223" cy="5285541"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -3066,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31042CD-5974-448B-A340-A57F76A7793D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV30" sqref="AV30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/designs/database.xlsx
+++ b/documents/designs/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET\NetCore\Project\CurriculumManager\CurriculumManager\documents\designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05A582D-9F55-44EB-B29A-85AEC734F80C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722860D0-4548-43CD-8EBA-01D3C73BAC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC8631EA-D656-42A1-8304-90F09B33E467}"/>
   </bookViews>
@@ -32,6 +32,14 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="1">
+  <si>
+    <t>n</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
@@ -44,7 +52,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -99,16 +107,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>220430</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2722</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>100910</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>191855</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>72335</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -123,8 +131,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12221930" y="2669722"/>
-          <a:ext cx="1685925" cy="854528"/>
+          <a:off x="15102785" y="4384221"/>
+          <a:ext cx="1638300" cy="1092653"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -164,18 +172,29 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Name</a:t>
-          </a:r>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Name - Tên</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> khoa (string)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -183,16 +202,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>234037</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>129268</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>190895</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>195937</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>81641</xdr:rowOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>208462</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>34010</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -207,8 +226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12235537" y="4129768"/>
-          <a:ext cx="1676400" cy="904873"/>
+          <a:off x="14954645" y="5415637"/>
+          <a:ext cx="1922567" cy="904873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -259,27 +278,38 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Name</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>FacultyId</a:t>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Name - Tên</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> ngành (string)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>FacultyId (int)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -288,16 +318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17972</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>91559</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -312,8 +342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="3895726"/>
-          <a:ext cx="2047875" cy="1381124"/>
+          <a:off x="970472" y="5187435"/>
+          <a:ext cx="2791903" cy="1381124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -364,7 +394,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -381,7 +411,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> học phần</a:t>
+            <a:t> học phần (string)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -402,7 +432,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> học phần</a:t>
+            <a:t> học phần (string)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -423,7 +453,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> tín chỉ</a:t>
+            <a:t> tín chỉ (int)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -444,7 +474,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> kiện tiên quyết</a:t>
+            <a:t> kiện tiên quyết (string)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -465,7 +495,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> giờ </a:t>
+            <a:t> giờ (string)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -486,7 +516,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> số</a:t>
+            <a:t> số (double)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -506,142 +536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>42173</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>189139</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>201080</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>32648</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E543A7D-CC56-4EDA-9E97-01A29062DACC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6655244" y="2475139"/>
-          <a:ext cx="1949904" cy="1130753"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>KnowledgeGroups - Nhóm kiến thức </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Name - Tên</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> nhóm kiến thức</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>ParentId - Nhóm kiến thức cha</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>DisplayOrder - thử tự</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>224897</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>145521</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>121704</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58202</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -656,8 +560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2844272" y="370417"/>
-          <a:ext cx="3730624" cy="1402291"/>
+          <a:off x="4487330" y="2047869"/>
+          <a:ext cx="3730624" cy="1820333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -701,7 +605,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -718,7 +622,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> - Mã học phần</a:t>
+            <a:t> - Mã học phần (string)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -728,7 +632,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>SchoolYearId - Mã năm học</a:t>
+            <a:t>SchoolYearId - Mã năm học (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -738,7 +642,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Goal - Mục tiêu học phần</a:t>
+            <a:t>Goal - Mục tiêu học phần (string)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -748,7 +652,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Assessment - Đánh giá sinh viên</a:t>
+            <a:t>Assessment - Đánh giá sinh viên (string)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -758,7 +662,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Content - Nội dung chi tiết</a:t>
+            <a:t>Content - Nội dung chi tiết (string)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -775,7 +679,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> thái (Approved: 0 - Reject: 1)</a:t>
+            <a:t> thái (Approved: 0 - Reject: 1) (int)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -795,16 +699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>63959</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>94795</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>16324</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>213638</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>184754</xdr:rowOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>166003</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -819,8 +723,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11017709" y="465212"/>
-          <a:ext cx="3007179" cy="1201209"/>
+          <a:off x="14065699" y="2214101"/>
+          <a:ext cx="3007179" cy="1518709"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -864,7 +768,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -881,7 +785,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> - Tên tài liệu</a:t>
+            <a:t> - Tên tài liệu (string)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -927,16 +831,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>12928</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>61382</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>12922</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>146279</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>51856</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>121222</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>218538</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -951,8 +855,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7156678" y="617007"/>
-          <a:ext cx="2990851" cy="916516"/>
+          <a:off x="9776047" y="2371189"/>
+          <a:ext cx="3203925" cy="1181099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -992,37 +896,37 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>OutlineId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>DocumentId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Type - Loại tài liệu (Reference: 0 - Textbook: 1)</a:t>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>OutlineId (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>DocumentId (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Type - Loại tài liệu (Reference: 0 - Textbook: 1) (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1038,16 +942,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>133810</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>148733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>120151</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>43958</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1062,8 +966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4695825" y="6010275"/>
-          <a:ext cx="2047875" cy="1085850"/>
+          <a:off x="6563185" y="8959358"/>
+          <a:ext cx="2367591" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1107,7 +1011,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID (Guid)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1124,7 +1028,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> đăng nhập</a:t>
+            <a:t> đăng nhập (string)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -1145,7 +1049,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> khẩu</a:t>
+            <a:t> khẩu (string)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1155,7 +1059,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Email - Địa chỉ Email</a:t>
+            <a:t>Email - Địa chỉ Email (string)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -1176,7 +1080,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> dùng</a:t>
+            <a:t> dùng (string)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -1189,16 +1093,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>120151</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>158259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>24901</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>34434</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1213,8 +1117,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9839325" y="6210301"/>
-          <a:ext cx="2047875" cy="685800"/>
+          <a:off x="12978901" y="9207009"/>
+          <a:ext cx="2047875" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1288,16 +1192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>224926</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>43958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>24901</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>148733</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1312,8 +1216,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562850" y="6143625"/>
-          <a:ext cx="1228725" cy="819150"/>
+          <a:off x="10702426" y="9092708"/>
+          <a:ext cx="1228725" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1386,16 +1290,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161298</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>70540</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>100005</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1410,8 +1314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="5943599"/>
-          <a:ext cx="2047875" cy="1228725"/>
+          <a:off x="1351923" y="7253280"/>
+          <a:ext cx="2052367" cy="1228725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,7 +1345,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>UserSubjects </a:t>
+            <a:t>TeacherSubjects </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -1455,27 +1359,27 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>UserId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>SubjecId</a:t>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>TeacherId (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SubjecId (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1512,16 +1416,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>145521</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>145521</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>121704</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>12928</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>149223</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>12922</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1539,8 +1443,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6574896" y="1071563"/>
-          <a:ext cx="581782" cy="3702"/>
+          <a:off x="8217954" y="2958036"/>
+          <a:ext cx="1558093" cy="3703"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1568,16 +1472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>146279</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>139775</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>121222</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>63959</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>149223</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>16324</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1594,9 +1498,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10147529" y="1065817"/>
-          <a:ext cx="870180" cy="9448"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12979972" y="2961739"/>
+          <a:ext cx="1085727" cy="11717"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1624,16 +1528,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>120151</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>224926</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>96346</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1651,8 +1555,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6743700" y="6553200"/>
-          <a:ext cx="819150" cy="0"/>
+          <a:off x="8930776" y="9621346"/>
+          <a:ext cx="1771650" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1680,16 +1584,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>24901</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>120158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>120151</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>120159</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1707,7 +1611,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8791575" y="6553200"/>
+          <a:off x="11931151" y="9645158"/>
           <a:ext cx="1047750" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1736,72 +1640,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>223299</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>91559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B47584F-3687-4E7B-9541-6CE733EDCEFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="1"/>
-          <a:endCxn id="12" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3762375" y="6553200"/>
-          <a:ext cx="933450" cy="4762"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>119063</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>234982</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14280</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1819,8 +1667,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2738438" y="5276850"/>
-          <a:ext cx="0" cy="666749"/>
+          <a:off x="2366424" y="6568559"/>
+          <a:ext cx="11683" cy="684721"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1848,16 +1696,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>159202</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>155730</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>141669</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>52918</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>220592</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>5287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1872,8 +1720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8969827" y="3674688"/>
-          <a:ext cx="2041071" cy="1564063"/>
+          <a:off x="11571669" y="5061099"/>
+          <a:ext cx="2460173" cy="1611688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1924,7 +1772,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1941,7 +1789,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> chương trình học</a:t>
+            <a:t> chương trình học (string)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -1962,7 +1810,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> - Mã ngành học</a:t>
+            <a:t> - Mã ngành học (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1972,7 +1820,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>SchoolYearId - Mã năm học</a:t>
+            <a:t>SchoolYearId - Mã năm học (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1982,7 +1830,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ApproveStatus - Trạng thái (Approved: 0 - Reject: 1)</a:t>
+            <a:t>ApproveStatus - Trạng thái (Approved: 0 - Reject: 1) (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1998,16 +1846,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>223299</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>185209</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>16935</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>201080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>43935</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2019,20 +1867,17 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="1"/>
-          <a:endCxn id="6" idx="0"/>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="6" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="1714500" y="370418"/>
-          <a:ext cx="2995084" cy="4091517"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1669240" y="3655220"/>
+          <a:ext cx="3515274" cy="2120906"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -7633"/>
-            <a:gd name="adj2" fmla="val 105587"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -2057,16 +1902,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>160562</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>137431</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>103904</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>65312</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>17682</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78241</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2081,8 +1926,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9222919" y="2423431"/>
-          <a:ext cx="2109107" cy="869497"/>
+          <a:off x="11533904" y="3399744"/>
+          <a:ext cx="2533153" cy="869497"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2126,7 +1971,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2143,7 +1988,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> năm học</a:t>
+            <a:t> năm học (string)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2164,7 +2009,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> - Khóa (K30, K31, K32)</a:t>
+            <a:t> - Khóa (K30, K31, K32) (string)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2184,198 +2029,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>44899</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>199679</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>44899</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>13606</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35066E00-BF82-4416-98C1-C7F5DBCE0F57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6657970" y="4000499"/>
-          <a:ext cx="1959429" cy="1156607"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>CurriculumDetails - Chi tiết chương trình học </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>CurriculumId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>KnowledgeGroupId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Note</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> - Chú thích</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>37410</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>44899</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F84FB14-A4B3-4C79-B575-BC0C6DF3B07B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="37" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7630196" y="3605892"/>
-          <a:ext cx="7489" cy="394607"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>83679</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>92523</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>129268</xdr:rowOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>205685</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81637</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2392,9 +2055,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13064893" y="3524250"/>
-          <a:ext cx="8844" cy="605518"/>
+        <a:xfrm flipH="1">
+          <a:off x="15915929" y="5476874"/>
+          <a:ext cx="6006" cy="1272263"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2422,16 +2085,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>44899</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9449</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>223970</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>159202</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11720</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>141669</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>151943</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2443,14 +2106,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="38" idx="1"/>
-          <a:endCxn id="37" idx="3"/>
+          <a:endCxn id="30" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8379274" y="4454449"/>
-          <a:ext cx="590553" cy="2271"/>
+          <a:off x="10463345" y="5864390"/>
+          <a:ext cx="1108324" cy="2553"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2478,16 +2142,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>57148</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11720</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>220592</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>151943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>234037</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>12851</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>190895</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153074</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2505,8 +2169,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11010898" y="4456720"/>
-          <a:ext cx="891264" cy="1131"/>
+          <a:off x="14031842" y="5866943"/>
+          <a:ext cx="922803" cy="1131"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2534,16 +2198,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>227238</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>179856</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>232000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>155730</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>181131</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>108099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2560,9 +2224,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9990363" y="3202970"/>
-          <a:ext cx="4762" cy="471718"/>
+        <a:xfrm>
+          <a:off x="12800481" y="4269241"/>
+          <a:ext cx="1275" cy="791858"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2590,16 +2254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>233494</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>151919</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>153762</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1360</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>223970</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2614,8 +2278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4327072" y="4014107"/>
-          <a:ext cx="1949904" cy="1130753"/>
+          <a:off x="8567869" y="5295419"/>
+          <a:ext cx="1895476" cy="1137941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2655,27 +2319,47 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>CurriculumDetailId</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>SubjectId</a:t>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Name (string)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Note (string)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CurriculumId (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ParentId (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2691,128 +2375,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>153762</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>47615</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>115654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>44899</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7484</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD15C428-5292-44A5-A7E9-93E660FB639C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="1"/>
-          <a:endCxn id="30" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6276976" y="4578803"/>
-          <a:ext cx="380994" cy="681"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732E4A8B-8457-403B-ACA3-DA5EA63ED70E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="30" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3864429" y="4579484"/>
-          <a:ext cx="462643" cy="6804"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>190490</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2827,8 +2399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13566321" y="6068785"/>
-          <a:ext cx="2102304" cy="884464"/>
+          <a:off x="16240115" y="7354654"/>
+          <a:ext cx="2047875" cy="884464"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2872,7 +2444,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID (int)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2889,7 +2461,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> - Tên bộ môn</a:t>
+            <a:t> - Tên bộ môn (string)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2899,7 +2471,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>FacultyId - Mã ngành</a:t>
+            <a:t>FacultyId - Mã ngành (int)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2912,16 +2484,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>191855</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>72335</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>119053</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>115654</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2939,8 +2511,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13907855" y="3096986"/>
-          <a:ext cx="709618" cy="2971799"/>
+          <a:off x="16741085" y="4930548"/>
+          <a:ext cx="522968" cy="4233856"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2968,74 +2540,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1361</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161393</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CADEC3-C874-4EB7-9EF4-EC535AC0B246}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="2"/>
-          <a:endCxn id="9" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="10177122" y="2655774"/>
-          <a:ext cx="142876" cy="8737826"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 688568"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>185210</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>232001</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>137431</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>179857</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161244</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3053,12 +2567,513 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="7058744" y="-576451"/>
-          <a:ext cx="587223" cy="5285541"/>
+          <a:off x="9405979" y="814866"/>
+          <a:ext cx="341167" cy="6447839"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>132803</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123279</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF7F8057-B1B2-4FD5-930F-A9F3A0F6C89E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5371553" y="5479495"/>
+          <a:ext cx="1895476" cy="768227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SubjectGroupDetail</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SubjectGroupId (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SubjectId (int)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>148609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>132803</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>162997</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC232E7-FAA5-4349-9582-A0264F953F8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3762375" y="5863609"/>
+          <a:ext cx="1609178" cy="14388"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123279</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>148609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>233494</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D31537-6713-477A-91C1-78689AF35838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="1"/>
+          <a:endCxn id="42" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7267029" y="5863609"/>
+          <a:ext cx="1300840" cy="781"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>27070</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>132082</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>64428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADA580E-B85F-459D-A36D-100B31CABE94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12409570" y="8655604"/>
+          <a:ext cx="2010012" cy="1124324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Teachers - Giáo viên</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>UserId (Guid)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>GenreId (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Position</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> - Chức vụ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(Normal: 0 -  Lead : 1) (int)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>132082</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>119053</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>73767</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45400014-7085-4ECE-A2A9-43C40EE8E811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15352494" y="7306207"/>
+          <a:ext cx="978648" cy="2844471"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>126981</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>43957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>27070</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>73765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B70F51A-EAB1-4E1A-9E6A-99D2EE55081D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9468059" y="8562254"/>
+          <a:ext cx="1220433" cy="4662589"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>234982</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>100006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>79576</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>64429</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC647FE3-3943-4A2B-884F-DD86C6063564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="7247380" y="3612733"/>
+          <a:ext cx="1297923" cy="11036469"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -17613"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3382,17 +3397,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31042CD-5974-448B-A340-A57F76A7793D}">
-  <dimension ref="A1"/>
+  <dimension ref="I12:BW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV30" sqref="AV30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="45" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="CL21" sqref="CL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="3.5703125" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="12" spans="17:59" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:73" x14ac:dyDescent="0.25">
+      <c r="BC17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:73" x14ac:dyDescent="0.25">
+      <c r="AC18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:73" x14ac:dyDescent="0.25">
+      <c r="BU20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="9:73" x14ac:dyDescent="0.25">
+      <c r="BA24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="9:73" x14ac:dyDescent="0.25">
+      <c r="BN25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="9:73" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="9:73" x14ac:dyDescent="0.25">
+      <c r="BN28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="9:73" x14ac:dyDescent="0.25">
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="12:75" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="12:75" x14ac:dyDescent="0.25">
+      <c r="BW37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="12:75" x14ac:dyDescent="0.25">
+      <c r="L38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="12:75" x14ac:dyDescent="0.25">
+      <c r="AM40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="12:75" x14ac:dyDescent="0.25">
+      <c r="AL45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="12:75" x14ac:dyDescent="0.25">
+      <c r="L47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="12:75" x14ac:dyDescent="0.25">
+      <c r="AY48" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="51:51" x14ac:dyDescent="0.25">
+      <c r="AY52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/documents/designs/database.xlsx
+++ b/documents/designs/database.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET\NetCore\Project\CurriculumManager\CurriculumManager\documents\designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722860D0-4548-43CD-8EBA-01D3C73BAC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D67D31F-2953-4BC4-ACA0-6EEE52071703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BC8631EA-D656-42A1-8304-90F09B33E467}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BC8631EA-D656-42A1-8304-90F09B33E467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3075,6 +3077,945 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val -17613"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>572973</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57140</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC285FC0-7118-4354-8ED4-034CF2057829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17032173" y="2080244"/>
+          <a:ext cx="1922567" cy="932888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Majors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> - Ngành học</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Name - Tên</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> ngành (string)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>FacultyId (int)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>353503</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A661AA-1C5A-4CC6-9064-B6CF0D5D1E61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="1846439"/>
+          <a:ext cx="2791903" cy="1420345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Subjects</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> - Học phần </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SubjectCode - Mã</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> học phần (string)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Name - Tên</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> học phần (string)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Unit - Số</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> tín chỉ (int)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Condition - Điều</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> kiện tiên quyết (string)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>HoursStudy - Số</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> giờ (string)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Coefficient - Hệ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> số (double)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>237997</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>259770</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635C3F17-8E0D-4C0B-BB0C-5555F4F1D03F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13649197" y="1714500"/>
+          <a:ext cx="2460173" cy="1662115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Curriculums</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> - Chương trình học</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Name - Tên</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> chương trình học (string)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>MajorId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> - Mã ngành học (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SchoolYearId - Mã năm học (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ApproveStatus - Trạng thái (Approved: 0 - Reject: 1) (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>TuitionUnit - Đơn vị học phí</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>348873</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>237997</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66256</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465F31B6-FFF5-4E5B-BC3D-EF37CA1A5CB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12540873" y="2540203"/>
+          <a:ext cx="1108324" cy="2553"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>259770</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>572973</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67387</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D88C7C-4325-436A-AB14-F395B4675177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16109370" y="2542756"/>
+          <a:ext cx="922803" cy="1131"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>282197</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>348873</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>77982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A312E4-35DF-48BF-9693-CABD6EC03AC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10645397" y="1954423"/>
+          <a:ext cx="1895476" cy="1171559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SubjectGroups</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Name (string)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Note (string)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CurriculumId (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ParentId (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133881</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>48602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200557</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77241</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AA4CE5-0F1F-4899-9263-7D74AD7213AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7449081" y="2144102"/>
+          <a:ext cx="1895476" cy="790639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SubjectGroupDetail</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>ID (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SubjectGroupId (int)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>SubjectId (int)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>353503</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133881</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>77310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABC0877A-AE09-482D-BFEB-0C6AACCB6E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5839903" y="2539422"/>
+          <a:ext cx="1609178" cy="14388"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200557</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>282197</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63703</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1028E1B0-FE37-4F24-91BB-7E6E4EE2B8E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9292602" y="2475097"/>
+          <a:ext cx="1293913" cy="781"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -3399,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31042CD-5974-448B-A340-A57F76A7793D}">
   <dimension ref="I12:BW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="45" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="CL21" sqref="CL21"/>
+    <sheetView topLeftCell="E14" zoomScale="68" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BH30" activeCellId="2" sqref="BI35 BJ30 BH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3549,4 +4490,22 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153E47D3-D7DD-4E99-8A1E-5CEDB7639BE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>